--- a/biology/Microbiologie/Gélose_Columbia_au_sang/Gélose_Columbia_au_sang.xlsx
+++ b/biology/Microbiologie/Gélose_Columbia_au_sang/Gélose_Columbia_au_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang</t>
+          <t>Gélose_Columbia_au_sang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La columbia au sang est un milieu de culture et d'isolement de bactéries non exigeantes n'ayant pas besoin de facteurs particuliers, comme Streptococcus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang</t>
+          <t>Gélose_Columbia_au_sang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mélange spécial de peptones : 23 grammes,
 amidon : 1 g,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang</t>
+          <t>Gélose_Columbia_au_sang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">42,5 g par litre. Stérilisation classique. Le sang est ajouté stérilement dans le milieu stérile en surfusion. On peut réaliser une gélose au sang cuit si le milieu est maintenu à 75-80 °C.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang</t>
+          <t>Gélose_Columbia_au_sang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'hémolyse est la destruction des globules rouges :
 colonies entourées d'un halo clair : béta-hémolyse (hémolyse totale);
